--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H2">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I2">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J2">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>3.237579041422777</v>
+        <v>8.168926034286111</v>
       </c>
       <c r="R2">
-        <v>29.138211372805</v>
+        <v>73.520334308575</v>
       </c>
       <c r="S2">
-        <v>0.005854897544018253</v>
+        <v>0.01237915170333846</v>
       </c>
       <c r="T2">
-        <v>0.005854897544018254</v>
+        <v>0.01237915170333846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H3">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I3">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J3">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>23.566242005164</v>
+        <v>44.58616822963601</v>
       </c>
       <c r="R3">
-        <v>212.096178046476</v>
+        <v>401.275514066724</v>
       </c>
       <c r="S3">
-        <v>0.04261762590887636</v>
+        <v>0.06756566751475894</v>
       </c>
       <c r="T3">
-        <v>0.04261762590887636</v>
+        <v>0.06756566751475891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H4">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I4">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J4">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.2745967681493333</v>
+        <v>0.9731603740845556</v>
       </c>
       <c r="R4">
-        <v>2.471370913344</v>
+        <v>8.758443366761</v>
       </c>
       <c r="S4">
-        <v>0.0004965858509901739</v>
+        <v>0.001474722607587315</v>
       </c>
       <c r="T4">
-        <v>0.0004965858509901739</v>
+        <v>0.001474722607587315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H5">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I5">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J5">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>5.114870651130111</v>
+        <v>11.45250857651144</v>
       </c>
       <c r="R5">
-        <v>46.033835860171</v>
+        <v>103.072577188603</v>
       </c>
       <c r="S5">
-        <v>0.009249826252925173</v>
+        <v>0.01735507708814866</v>
       </c>
       <c r="T5">
-        <v>0.009249826252925173</v>
+        <v>0.01735507708814866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H6">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I6">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J6">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.1939590545228888</v>
+        <v>0.4785445577073333</v>
       </c>
       <c r="R6">
-        <v>1.745631490706</v>
+        <v>4.306901019366</v>
       </c>
       <c r="S6">
-        <v>0.0003507591250859816</v>
+        <v>0.000725184149275234</v>
       </c>
       <c r="T6">
-        <v>0.0003507591250859815</v>
+        <v>0.0007251841492752339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>12.132938</v>
       </c>
       <c r="I7">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J7">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>41.47640136935222</v>
+        <v>55.31409804460555</v>
       </c>
       <c r="R7">
-        <v>373.28761232417</v>
+        <v>497.82688240145</v>
       </c>
       <c r="S7">
-        <v>0.07500668783839723</v>
+        <v>0.0838227213900033</v>
       </c>
       <c r="T7">
-        <v>0.07500668783839723</v>
+        <v>0.08382272139000328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>12.132938</v>
       </c>
       <c r="I8">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J8">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
         <v>301.905497801816</v>
@@ -948,10 +948,10 @@
         <v>2717.149480216344</v>
       </c>
       <c r="S8">
-        <v>0.5459714604615998</v>
+        <v>0.4575061570730949</v>
       </c>
       <c r="T8">
-        <v>0.5459714604615997</v>
+        <v>0.4575061570730948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>12.132938</v>
       </c>
       <c r="I9">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J9">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>3.517840220970667</v>
+        <v>6.589542874951777</v>
       </c>
       <c r="R9">
-        <v>31.660561988736</v>
+        <v>59.30588587456599</v>
       </c>
       <c r="S9">
-        <v>0.006361727020866326</v>
+        <v>0.00998576196703314</v>
       </c>
       <c r="T9">
-        <v>0.006361727020866326</v>
+        <v>0.009985761967033137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>12.132938</v>
       </c>
       <c r="I10">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J10">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>65.52625445257488</v>
+        <v>77.54815989262421</v>
       </c>
       <c r="R10">
-        <v>589.736290073174</v>
+        <v>697.9334390336179</v>
       </c>
       <c r="S10">
-        <v>0.1184988849243657</v>
+        <v>0.1175161130846787</v>
       </c>
       <c r="T10">
-        <v>0.1184988849243657</v>
+        <v>0.1175161130846786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>12.132938</v>
       </c>
       <c r="I11">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J11">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>2.484796044107111</v>
+        <v>3.240359928910666</v>
       </c>
       <c r="R11">
-        <v>22.363164396964</v>
+        <v>29.163239360196</v>
       </c>
       <c r="S11">
-        <v>0.004493550912547194</v>
+        <v>0.004910426041935592</v>
       </c>
       <c r="T11">
-        <v>0.004493550912547194</v>
+        <v>0.004910426041935591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H12">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I12">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J12">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N12">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O12">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P12">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q12">
-        <v>9.837419932928888</v>
+        <v>10.24267050980833</v>
       </c>
       <c r="R12">
-        <v>88.53677939636</v>
+        <v>92.18403458827501</v>
       </c>
       <c r="S12">
-        <v>0.01779017131871168</v>
+        <v>0.01552169422957803</v>
       </c>
       <c r="T12">
-        <v>0.01779017131871168</v>
+        <v>0.01552169422957802</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H13">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I13">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J13">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
         <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P13">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q13">
-        <v>71.60628848892799</v>
+        <v>55.90470871621201</v>
       </c>
       <c r="R13">
-        <v>644.4565964003518</v>
+        <v>503.1423784459081</v>
       </c>
       <c r="S13">
-        <v>0.1294941304122866</v>
+        <v>0.08471772999587643</v>
       </c>
       <c r="T13">
-        <v>0.1294941304122866</v>
+        <v>0.0847177299958764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H14">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I14">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J14">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N14">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O14">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P14">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q14">
-        <v>0.8343653346986666</v>
+        <v>1.220204592759667</v>
       </c>
       <c r="R14">
-        <v>7.509288012288</v>
+        <v>10.981841334837</v>
       </c>
       <c r="S14">
-        <v>0.001508881632367619</v>
+        <v>0.001849092242907337</v>
       </c>
       <c r="T14">
-        <v>0.001508881632367618</v>
+        <v>0.001849092242907336</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H15">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I15">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J15">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N15">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q15">
-        <v>15.54159137244355</v>
+        <v>14.35981564377233</v>
       </c>
       <c r="R15">
-        <v>139.874322351992</v>
+        <v>129.238340793951</v>
       </c>
       <c r="S15">
-        <v>0.02810569996668463</v>
+        <v>0.02176079640581118</v>
       </c>
       <c r="T15">
-        <v>0.02810569996668463</v>
+        <v>0.02176079640581117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H16">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I16">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J16">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N16">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O16">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P16">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q16">
-        <v>0.5893467448124443</v>
+        <v>0.600026760958</v>
       </c>
       <c r="R16">
-        <v>5.304120703311998</v>
+        <v>5.400240848622</v>
       </c>
       <c r="S16">
-        <v>0.001065785503498057</v>
+        <v>0.0009092777029423804</v>
       </c>
       <c r="T16">
-        <v>0.001065785503498057</v>
+        <v>0.0009092777029423803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.070789</v>
+        <v>0.4994553333333333</v>
       </c>
       <c r="H17">
-        <v>0.212367</v>
+        <v>1.498366</v>
       </c>
       <c r="I17">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717519</v>
       </c>
       <c r="J17">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717518</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N17">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O17">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P17">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q17">
-        <v>0.7259757636283334</v>
+        <v>6.831054756127777</v>
       </c>
       <c r="R17">
-        <v>6.533781872655001</v>
+        <v>61.47949280515</v>
       </c>
       <c r="S17">
-        <v>0.001312867936535809</v>
+        <v>0.01035174792439009</v>
       </c>
       <c r="T17">
-        <v>0.001312867936535809</v>
+        <v>0.01035174792439009</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.070789</v>
+        <v>0.4994553333333333</v>
       </c>
       <c r="H18">
-        <v>0.212367</v>
+        <v>1.498366</v>
       </c>
       <c r="I18">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717519</v>
       </c>
       <c r="J18">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717518</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N18">
         <v>223.948188</v>
       </c>
       <c r="O18">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P18">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q18">
-        <v>5.284356093444</v>
+        <v>37.284038962312</v>
       </c>
       <c r="R18">
-        <v>47.559204840996</v>
+        <v>335.556350660808</v>
       </c>
       <c r="S18">
-        <v>0.009556326847120508</v>
+        <v>0.05650005551408777</v>
       </c>
       <c r="T18">
-        <v>0.009556326847120504</v>
+        <v>0.05650005551408775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.070789</v>
+        <v>0.4994553333333333</v>
       </c>
       <c r="H19">
-        <v>0.212367</v>
+        <v>1.498366</v>
       </c>
       <c r="I19">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717519</v>
       </c>
       <c r="J19">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717518</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N19">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O19">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P19">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q19">
-        <v>0.06157397113600001</v>
+        <v>0.8137803885068888</v>
       </c>
       <c r="R19">
-        <v>0.554165740224</v>
+        <v>7.324023496561999</v>
       </c>
       <c r="S19">
-        <v>0.000111351503011086</v>
+        <v>0.001233198934627011</v>
       </c>
       <c r="T19">
-        <v>0.0001113515030110859</v>
+        <v>0.001233198934627011</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.070789</v>
+        <v>0.4994553333333333</v>
       </c>
       <c r="H20">
-        <v>0.212367</v>
+        <v>1.498366</v>
       </c>
       <c r="I20">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717519</v>
       </c>
       <c r="J20">
-        <v>0.01313332532677934</v>
+        <v>0.08320415683717518</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N20">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q20">
-        <v>1.146928639982333</v>
+        <v>9.57686639012511</v>
       </c>
       <c r="R20">
-        <v>10.322357759841</v>
+        <v>86.19179751112598</v>
       </c>
       <c r="S20">
-        <v>0.002074126868095161</v>
+        <v>0.0145127378297192</v>
       </c>
       <c r="T20">
-        <v>0.00207412686809516</v>
+        <v>0.0145127378297192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.498366</v>
+      </c>
+      <c r="I21">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J21">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.801214</v>
+      </c>
+      <c r="N21">
+        <v>2.403642</v>
+      </c>
+      <c r="O21">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="P21">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="Q21">
+        <v>0.4001706054413333</v>
+      </c>
+      <c r="R21">
+        <v>3.601535448972</v>
+      </c>
+      <c r="S21">
+        <v>0.0006064166343511246</v>
+      </c>
+      <c r="T21">
+        <v>0.0006064166343511245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.338489</v>
+      </c>
+      <c r="I22">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J22">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.67700833333333</v>
+      </c>
+      <c r="N22">
+        <v>41.031025</v>
+      </c>
+      <c r="O22">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="P22">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="Q22">
+        <v>1.543172291247222</v>
+      </c>
+      <c r="R22">
+        <v>13.888550621225</v>
+      </c>
+      <c r="S22">
+        <v>0.002338515958837079</v>
+      </c>
+      <c r="T22">
+        <v>0.002338515958837079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.338489</v>
+      </c>
+      <c r="I23">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J23">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N23">
+        <v>223.948188</v>
+      </c>
+      <c r="O23">
+        <v>0.679053278848249</v>
+      </c>
+      <c r="P23">
+        <v>0.6790532788482488</v>
+      </c>
+      <c r="Q23">
+        <v>8.422666467548002</v>
+      </c>
+      <c r="R23">
+        <v>75.803998207932</v>
+      </c>
+      <c r="S23">
+        <v>0.01276366875043084</v>
+      </c>
+      <c r="T23">
+        <v>0.01276366875043083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.338489</v>
+      </c>
+      <c r="I24">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J24">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.629335666666667</v>
+      </c>
+      <c r="N24">
+        <v>4.888007</v>
+      </c>
+      <c r="O24">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="P24">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="Q24">
+        <v>0.1838374001581111</v>
+      </c>
+      <c r="R24">
+        <v>1.654536601423</v>
+      </c>
+      <c r="S24">
+        <v>0.0002785863228229701</v>
+      </c>
+      <c r="T24">
+        <v>0.00027858632282297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.070789</v>
-      </c>
-      <c r="H21">
-        <v>0.212367</v>
-      </c>
-      <c r="I21">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="J21">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.6143926666666666</v>
-      </c>
-      <c r="N21">
-        <v>1.843178</v>
-      </c>
-      <c r="O21">
-        <v>0.005988747713148012</v>
-      </c>
-      <c r="P21">
-        <v>0.00598874771314801</v>
-      </c>
-      <c r="Q21">
-        <v>0.04349224248066667</v>
-      </c>
-      <c r="R21">
-        <v>0.391430182326</v>
-      </c>
-      <c r="S21">
-        <v>7.865217201677863E-05</v>
-      </c>
-      <c r="T21">
-        <v>7.865217201677861E-05</v>
+      <c r="G25">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.338489</v>
+      </c>
+      <c r="I25">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J25">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.17462033333333</v>
+      </c>
+      <c r="N25">
+        <v>57.523861</v>
+      </c>
+      <c r="O25">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="P25">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="Q25">
+        <v>2.163466020669889</v>
+      </c>
+      <c r="R25">
+        <v>19.471194186029</v>
+      </c>
+      <c r="S25">
+        <v>0.003278506129506291</v>
+      </c>
+      <c r="T25">
+        <v>0.00327850612950629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.338489</v>
+      </c>
+      <c r="I26">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J26">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.801214</v>
+      </c>
+      <c r="N26">
+        <v>2.403642</v>
+      </c>
+      <c r="O26">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="P26">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="Q26">
+        <v>0.09040070854866666</v>
+      </c>
+      <c r="R26">
+        <v>0.813606376938</v>
+      </c>
+      <c r="S26">
+        <v>0.0001369928042580236</v>
+      </c>
+      <c r="T26">
+        <v>0.0001369928042580236</v>
       </c>
     </row>
   </sheetData>
